--- a/162_DB/Template Dictionnaire.xlsx
+++ b/162_DB/Template Dictionnaire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Documents\EPSIC\162_DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A54751-BEEA-4697-A685-5BF36B8AE528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D7B792-447C-4F5A-92E3-B4481775ABF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D9CDEB04-9F84-4CDA-82EE-90424E81F9AD}"/>
   </bookViews>
@@ -78,6 +78,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -507,7 +508,7 @@
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
